--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\FIZZ\Documents\@MOOC\@ Udacity PDSP\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\FIZZ\Documents\@MOOC\@ Udacity PDSP\Projects\SQL\Sakila Database - Udacity SQL Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C1C0D-403A-492B-8A08-1C14D3B94A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886FDDBE-7351-4A24-95E8-8C67985C1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="655" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="655" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1-1 " sheetId="1" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="Suggestion3" sheetId="6" r:id="rId6"/>
     <sheet name="Question 3" sheetId="7" r:id="rId7"/>
     <sheet name="Suggestion4" sheetId="8" r:id="rId8"/>
+    <sheet name="Question 4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="516">
   <si>
     <t>film_title</t>
   </si>
@@ -1257,6 +1258,340 @@
   </si>
   <si>
     <t>Rental count</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>rentals</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Kazakstan</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Runion</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S.</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Question 4: Where should the customer accquisition funds should be spent to increase
+the rentals?</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +2075,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1758,6 +2093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14919,7 +15255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -15066,4 +15402,896 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C0328-434A-4F44-A875-A035A502D05E}">
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="5">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="5">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B36" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B41" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B44" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B53" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B55" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B58" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B62" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B63" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B68" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B69" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B70" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B71" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B74" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B77" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B81" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B84" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B86" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B87" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B89" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B90" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B91" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B94" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B98" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B99" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B100" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B102" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B103" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B109" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" s="5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,33 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\FIZZ\Documents\@MOOC\@ Udacity PDSP\Projects\SQL\Sakila Database - Udacity SQL Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886FDDBE-7351-4A24-95E8-8C67985C1D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE120E87-A31B-4BF2-8344-173BAFD9D222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="655" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="829" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1-1 " sheetId="1" r:id="rId1"/>
     <sheet name="Suggestion1" sheetId="2" r:id="rId2"/>
-    <sheet name="Question 2-1" sheetId="3" r:id="rId3"/>
-    <sheet name="Suggestion2" sheetId="4" r:id="rId4"/>
-    <sheet name="Question 2-2" sheetId="5" r:id="rId5"/>
-    <sheet name="Suggestion3" sheetId="6" r:id="rId6"/>
-    <sheet name="Question 3" sheetId="7" r:id="rId7"/>
-    <sheet name="Suggestion4" sheetId="8" r:id="rId8"/>
-    <sheet name="Question 4" sheetId="9" r:id="rId9"/>
+    <sheet name="Radial Bar" sheetId="10" r:id="rId3"/>
+    <sheet name="Question 2-1" sheetId="3" r:id="rId4"/>
+    <sheet name="Suggestion2" sheetId="4" r:id="rId5"/>
+    <sheet name="Question 2-2" sheetId="5" r:id="rId6"/>
+    <sheet name="Suggestion3" sheetId="6" r:id="rId7"/>
+    <sheet name="Question 3" sheetId="7" r:id="rId8"/>
+    <sheet name="Suggestion4" sheetId="8" r:id="rId9"/>
+    <sheet name="Question 4" sheetId="9" r:id="rId10"/>
+    <sheet name="Map" sheetId="11" r:id="rId11"/>
+    <sheet name="Total sales bar" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="2" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="708">
   <si>
     <t>film_title</t>
   </si>
@@ -1592,6 +1595,582 @@
   <si>
     <t>Question 4: Where should the customer accquisition funds should be spent to increase
 the rentals?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Woody Hoffman</t>
+  </si>
+  <si>
+    <t>Sandra Kilmer</t>
+  </si>
+  <si>
+    <t>Ben Willis</t>
+  </si>
+  <si>
+    <t>Jayne Nolte</t>
+  </si>
+  <si>
+    <t>Michael Bolger</t>
+  </si>
+  <si>
+    <t>Sean Guiness</t>
+  </si>
+  <si>
+    <t>Kevin Garland</t>
+  </si>
+  <si>
+    <t>Whoopi Hurt</t>
+  </si>
+  <si>
+    <t>Ed Mansfield</t>
+  </si>
+  <si>
+    <t>Helen Voight</t>
+  </si>
+  <si>
+    <t>Julia Mcqueen</t>
+  </si>
+  <si>
+    <t>Angela Hudson</t>
+  </si>
+  <si>
+    <t>Renee Tracy</t>
+  </si>
+  <si>
+    <t>Kirsten Paltrow</t>
+  </si>
+  <si>
+    <t>Ewan Gooding</t>
+  </si>
+  <si>
+    <t>Uma Wood</t>
+  </si>
+  <si>
+    <t>Reese Kilmer</t>
+  </si>
+  <si>
+    <t>Reese West</t>
+  </si>
+  <si>
+    <t>Jada Ryder</t>
+  </si>
+  <si>
+    <t>Rip Crawford</t>
+  </si>
+  <si>
+    <t>Val Bolger</t>
+  </si>
+  <si>
+    <t>Warren Nolte</t>
+  </si>
+  <si>
+    <t>Kirsten Akroyd</t>
+  </si>
+  <si>
+    <t>Vivien Bergen</t>
+  </si>
+  <si>
+    <t>Mary Tandy</t>
+  </si>
+  <si>
+    <t>Kenneth Torn</t>
+  </si>
+  <si>
+    <t>Tom Miranda</t>
+  </si>
+  <si>
+    <t>Gregory Gooding</t>
+  </si>
+  <si>
+    <t>Vivien Basinger</t>
+  </si>
+  <si>
+    <t>Albert Johansson</t>
+  </si>
+  <si>
+    <t>Albert Nolte</t>
+  </si>
+  <si>
+    <t>Jodie Degeneres</t>
+  </si>
+  <si>
+    <t>Geoffrey Heston</t>
+  </si>
+  <si>
+    <t>Fay Winslet</t>
+  </si>
+  <si>
+    <t>John Suvari</t>
+  </si>
+  <si>
+    <t>Sidney Crowe</t>
+  </si>
+  <si>
+    <t>Milla Keitel</t>
+  </si>
+  <si>
+    <t>Groucho Dunst</t>
+  </si>
+  <si>
+    <t>Woody Jolie</t>
+  </si>
+  <si>
+    <t>Warren Jackman</t>
+  </si>
+  <si>
+    <t>Grace Mostel</t>
+  </si>
+  <si>
+    <t>Mena Temple</t>
+  </si>
+  <si>
+    <t>Will Wilson</t>
+  </si>
+  <si>
+    <t>Natalie Hopkins</t>
+  </si>
+  <si>
+    <t>Renee Ball</t>
+  </si>
+  <si>
+    <t>Humphrey Garland</t>
+  </si>
+  <si>
+    <t>Dustin Tautou</t>
+  </si>
+  <si>
+    <t>Russell Bacall</t>
+  </si>
+  <si>
+    <t>Greta Keitel</t>
+  </si>
+  <si>
+    <t>James Pitt</t>
+  </si>
+  <si>
+    <t>Goldie Brody</t>
+  </si>
+  <si>
+    <t>Johnny Lollobrigida</t>
+  </si>
+  <si>
+    <t>Gene Mckellen</t>
+  </si>
+  <si>
+    <t>Ed Guiness</t>
+  </si>
+  <si>
+    <t>Ray Johansson</t>
+  </si>
+  <si>
+    <t>Alec Wayne</t>
+  </si>
+  <si>
+    <t>Frances Day-Lewis</t>
+  </si>
+  <si>
+    <t>Matthew Leigh</t>
+  </si>
+  <si>
+    <t>Kim Allen</t>
+  </si>
+  <si>
+    <t>Rock Dukakis</t>
+  </si>
+  <si>
+    <t>Daryl Wahlberg</t>
+  </si>
+  <si>
+    <t>Jude Cruise</t>
+  </si>
+  <si>
+    <t>Dan Harris</t>
+  </si>
+  <si>
+    <t>Bela Walken</t>
+  </si>
+  <si>
+    <t>Angelina Astaire</t>
+  </si>
+  <si>
+    <t>Jayne Neeson</t>
+  </si>
+  <si>
+    <t>Greta Malden</t>
+  </si>
+  <si>
+    <t>Milla Peck</t>
+  </si>
+  <si>
+    <t>River Dean</t>
+  </si>
+  <si>
+    <t>Ian Tandy</t>
+  </si>
+  <si>
+    <t>Morgan Hopkins</t>
+  </si>
+  <si>
+    <t>Groucho Sinatra</t>
+  </si>
+  <si>
+    <t>Audrey Olivier</t>
+  </si>
+  <si>
+    <t>Nick Degeneres</t>
+  </si>
+  <si>
+    <t>William Hackman</t>
+  </si>
+  <si>
+    <t>Morgan Williams</t>
+  </si>
+  <si>
+    <t>Ralph Cruz</t>
+  </si>
+  <si>
+    <t>Kenneth Hoffman</t>
+  </si>
+  <si>
+    <t>Russell Temple</t>
+  </si>
+  <si>
+    <t>Julia Barrymore</t>
+  </si>
+  <si>
+    <t>Lucille Tracy</t>
+  </si>
+  <si>
+    <t>Olympia Pfeiffer</t>
+  </si>
+  <si>
+    <t>Alan Dreyfuss</t>
+  </si>
+  <si>
+    <t>Rip Winslet</t>
+  </si>
+  <si>
+    <t>Johnny Cage</t>
+  </si>
+  <si>
+    <t>Karl Berry</t>
+  </si>
+  <si>
+    <t>Penelope Cronyn</t>
+  </si>
+  <si>
+    <t>Anne Cronyn</t>
+  </si>
+  <si>
+    <t>Cuba Olivier</t>
+  </si>
+  <si>
+    <t>Julianne Dench</t>
+  </si>
+  <si>
+    <t>Daryl Crawford</t>
+  </si>
+  <si>
+    <t>Burt Dukakis</t>
+  </si>
+  <si>
+    <t>Sean Williams</t>
+  </si>
+  <si>
+    <t>Penelope Pinkett</t>
+  </si>
+  <si>
+    <t>Harvey Hope</t>
+  </si>
+  <si>
+    <t>Meryl Gibson</t>
+  </si>
+  <si>
+    <t>Michelle Mcconaughey</t>
+  </si>
+  <si>
+    <t>Gary Phoenix</t>
+  </si>
+  <si>
+    <t>Richard Penn</t>
+  </si>
+  <si>
+    <t>Chris Bridges</t>
+  </si>
+  <si>
+    <t>Jon Chase</t>
+  </si>
+  <si>
+    <t>Lucille Dee</t>
+  </si>
+  <si>
+    <t>Penelope Monroe</t>
+  </si>
+  <si>
+    <t>Harrison Bale</t>
+  </si>
+  <si>
+    <t>Greg Chaplin</t>
+  </si>
+  <si>
+    <t>Cate Mcqueen</t>
+  </si>
+  <si>
+    <t>Liza Bergman</t>
+  </si>
+  <si>
+    <t>Jayne Silverstone</t>
+  </si>
+  <si>
+    <t>Nick Stallone</t>
+  </si>
+  <si>
+    <t>Ellen Presley</t>
+  </si>
+  <si>
+    <t>Gene Hopkins</t>
+  </si>
+  <si>
+    <t>Christopher West</t>
+  </si>
+  <si>
+    <t>Scarlett Bening</t>
+  </si>
+  <si>
+    <t>Jessica Bailey</t>
+  </si>
+  <si>
+    <t>Gary Penn</t>
+  </si>
+  <si>
+    <t>Fred Costner</t>
+  </si>
+  <si>
+    <t>Gene Willis</t>
+  </si>
+  <si>
+    <t>Burt Posey</t>
+  </si>
+  <si>
+    <t>Meryl Allen</t>
+  </si>
+  <si>
+    <t>Groucho Williams</t>
+  </si>
+  <si>
+    <t>Salma Nolte</t>
+  </si>
+  <si>
+    <t>Meg Hawke</t>
+  </si>
+  <si>
+    <t>Kirk Jovovich</t>
+  </si>
+  <si>
+    <t>Cuba Allen</t>
+  </si>
+  <si>
+    <t>Minnie Zellweger</t>
+  </si>
+  <si>
+    <t>Morgan Mcdormand</t>
+  </si>
+  <si>
+    <t>Elvis Marx</t>
+  </si>
+  <si>
+    <t>Fay Kilmer</t>
+  </si>
+  <si>
+    <t>Carmen Hunt</t>
+  </si>
+  <si>
+    <t>Frances Tomei</t>
+  </si>
+  <si>
+    <t>Burt Temple</t>
+  </si>
+  <si>
+    <t>Laurence Bullock</t>
+  </si>
+  <si>
+    <t>Humphrey Willis</t>
+  </si>
+  <si>
+    <t>Charlize Dench</t>
+  </si>
+  <si>
+    <t>Nick Wahlberg</t>
+  </si>
+  <si>
+    <t>Ben Harris</t>
+  </si>
+  <si>
+    <t>Spencer Peck</t>
+  </si>
+  <si>
+    <t>Matthew Johansson</t>
+  </si>
+  <si>
+    <t>Spencer Depp</t>
+  </si>
+  <si>
+    <t>Parker Goldberg</t>
+  </si>
+  <si>
+    <t>Christian Neeson</t>
+  </si>
+  <si>
+    <t>Zero Cage</t>
+  </si>
+  <si>
+    <t>Kevin Bloom</t>
+  </si>
+  <si>
+    <t>Al Garland</t>
+  </si>
+  <si>
+    <t>Christian Gable</t>
+  </si>
+  <si>
+    <t>Debbie Akroyd</t>
+  </si>
+  <si>
+    <t>Sylvester Dern</t>
+  </si>
+  <si>
+    <t>Jane Jackman</t>
+  </si>
+  <si>
+    <t>Bob Fawcett</t>
+  </si>
+  <si>
+    <t>Adam Hopper</t>
+  </si>
+  <si>
+    <t>Tom Mckellen</t>
+  </si>
+  <si>
+    <t>Oprah Kilmer</t>
+  </si>
+  <si>
+    <t>Laura Brody</t>
+  </si>
+  <si>
+    <t>Thora Temple</t>
+  </si>
+  <si>
+    <t>Rita Reynolds</t>
+  </si>
+  <si>
+    <t>Chris Depp</t>
+  </si>
+  <si>
+    <t>Dan Torn</t>
+  </si>
+  <si>
+    <t>Mae Hoffman</t>
+  </si>
+  <si>
+    <t>Dan Streep</t>
+  </si>
+  <si>
+    <t>Jim Mostel</t>
+  </si>
+  <si>
+    <t>Fay Wood</t>
+  </si>
+  <si>
+    <t>Tim Hackman</t>
+  </si>
+  <si>
+    <t>Mena Hopper</t>
+  </si>
+  <si>
+    <t>Michael Bening</t>
+  </si>
+  <si>
+    <t>Kenneth Paltrow</t>
+  </si>
+  <si>
+    <t>Minnie Kilmer</t>
+  </si>
+  <si>
+    <t>Lisa Monroe</t>
+  </si>
+  <si>
+    <t>Bette Nicholson</t>
+  </si>
+  <si>
+    <t>Joe Swank</t>
+  </si>
+  <si>
+    <t>Cameron Streep</t>
+  </si>
+  <si>
+    <t>Cuba Birch</t>
+  </si>
+  <si>
+    <t>Audrey Bailey</t>
+  </si>
+  <si>
+    <t>Cate Harris</t>
+  </si>
+  <si>
+    <t>Christopher Berry</t>
+  </si>
+  <si>
+    <t>Cameron Wray</t>
+  </si>
+  <si>
+    <t>Ed Chase</t>
+  </si>
+  <si>
+    <t>Jeff Silverstone</t>
+  </si>
+  <si>
+    <t>Cary Mcconaughey</t>
+  </si>
+  <si>
+    <t>Kenneth Pesci</t>
+  </si>
+  <si>
+    <t>Penelope Guiness</t>
+  </si>
+  <si>
+    <t>Russell Close</t>
+  </si>
+  <si>
+    <t>Julia Fawcett</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>Julia Zellweger</t>
+  </si>
+  <si>
+    <t>Sandra Peck</t>
+  </si>
+  <si>
+    <t>Judy Dean</t>
+  </si>
+  <si>
+    <t>Adam Grant</t>
+  </si>
+  <si>
+    <t>Sissy Sobieski</t>
+  </si>
+  <si>
+    <t>Emily Dee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to calculate the total sales made </t>
   </si>
 </sst>
 </file>
@@ -2084,6 +2663,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2093,7 +2673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2292,6 +2871,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2374,6 +2954,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10062,7 +10643,7 @@
   <dimension ref="A1:C354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10073,16 +10654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13950,6 +14531,4002 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C0328-434A-4F44-A875-A035A502D05E}">
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="5">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="5">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B36" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B41" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B44" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B49" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B53" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B55" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B58" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B62" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B63" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B68" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B69" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B70" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B71" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B74" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B77" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B81" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B84" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B86" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B87" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B89" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B90" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B91" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B94" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B98" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B99" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B100" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B102" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B103" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B109" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" s="5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D6D13C-8450-4C9E-85B5-93CE2B53DAB3}">
+  <dimension ref="A1:B108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="5">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="5">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B37" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B42" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B43" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B45" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B47" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B51" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B52" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B53" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B54" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B55" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B56" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B57" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B58" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B63" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B69" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B70" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B71" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B72" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B74" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B75" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B77" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B79" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B81" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B85" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B87" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B88" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B89" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B92" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B93" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B94" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B95" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B96" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B97" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B98" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B99" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B101" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B102" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B103" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B104" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B105" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B106" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B107" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" s="5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EA5700-B014-4627-8C7A-AE12B3AD6EC8}">
+  <dimension ref="B1:D202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="5">
+        <v>750</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3193.49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="5">
+        <v>685</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3129.17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="5">
+        <v>619</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2543.7800000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="5">
+        <v>607</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2426.92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="5">
+        <v>519</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2403.81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="5">
+        <v>584</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2403.1799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="5">
+        <v>564</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2392.36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="5">
+        <v>504</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2378.9699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="5">
+        <v>589</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2357.11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="5">
+        <v>507</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2322.94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="5">
+        <v>508</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2315.92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="5">
+        <v>556</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2271.44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="5">
+        <v>503</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2239.9699999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="5">
+        <v>564</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2231.33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" s="5">
+        <v>504</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2201.9699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C19" s="5">
+        <v>538</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2173.61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="5">
+        <v>511</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2161.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" s="5">
+        <v>483</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2156.16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" s="5">
+        <v>443</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2146.56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="5">
+        <v>510</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2144.92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C24" s="5">
+        <v>498</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2129.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C25" s="5">
+        <v>516</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2124.84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="5">
+        <v>499</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2113.0300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="5">
+        <v>406</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2111.9499999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="5">
+        <v>523</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2111.79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="5">
+        <v>486</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2087.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="5">
+        <v>503</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2075.9699999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C31" s="5">
+        <v>500</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" s="5">
+        <v>502</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2073.0100000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="5">
+        <v>467</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2068.34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="5">
+        <v>562</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2066.38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="5">
+        <v>511</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2064.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" s="5">
+        <v>429</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2056.71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" s="5">
+        <v>479</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2051.21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C38" s="5">
+        <v>497</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C39" s="5">
+        <v>489</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2043.11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C40" s="5">
+        <v>450</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2041.51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C41" s="5">
+        <v>475</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2029.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="5">
+        <v>489</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2025.13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" s="5">
+        <v>475</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2022.24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C44" s="5">
+        <v>478</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2021.21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" s="5">
+        <v>453</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2009.45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C46" s="5">
+        <v>420</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1995.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C47" s="5">
+        <v>485</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1987.16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C48" s="5">
+        <v>420</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1965.79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C49" s="5">
+        <v>504</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1964.95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C50" s="5">
+        <v>392</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1963.08</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C51" s="5">
+        <v>450</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1918.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C52" s="5">
+        <v>428</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1910.72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C53" s="5">
+        <v>468</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1900.32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C54" s="5">
+        <v>443</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1892.57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C55" s="5">
+        <v>483</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1883.17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C56" s="5">
+        <v>437</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1879.62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C57" s="5">
+        <v>481</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1878.19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C58" s="5">
+        <v>454</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1875.47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="5">
+        <v>378</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1866.22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="5">
+        <v>427</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1855.72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C61" s="5">
+        <v>403</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1854.98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C62" s="5">
+        <v>447</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1845.53</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="5">
+        <v>469</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1844.31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="5">
+        <v>415</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1842.84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C65" s="5">
+        <v>446</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1813.54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C66" s="5">
+        <v>405</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1810.94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C67" s="5">
+        <v>475</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1810.26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C68" s="5">
+        <v>418</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1808.82</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C69" s="5">
+        <v>459</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1802.44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C70" s="5">
+        <v>428</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1794.72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C71" s="5">
+        <v>470</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1791.29</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C72" s="5">
+        <v>449</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1787.52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C73" s="5">
+        <v>431</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1783.69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C74" s="5">
+        <v>429</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1772.71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C75" s="5">
+        <v>455</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1771.45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C76" s="5">
+        <v>420</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1770.8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C77" s="5">
+        <v>414</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1766.86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C78" s="5">
+        <v>447</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1755.53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C79" s="5">
+        <v>452</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1749.48</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C80" s="5">
+        <v>439</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1748.61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C81" s="5">
+        <v>388</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1746.1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C82" s="5">
+        <v>429</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1740.72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C83" s="5">
+        <v>461</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1723.38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C84" s="5">
+        <v>455</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1705.44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C85" s="5">
+        <v>418</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1703.79</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C86" s="5">
+        <v>362</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1700.38</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C87" s="5">
+        <v>333</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1693.65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C88" s="5">
+        <v>370</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1692.31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C89" s="5">
+        <v>406</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1689.94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C90" s="5">
+        <v>418</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1686.82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C91" s="5">
+        <v>417</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1678.81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C92" s="5">
+        <v>430</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1676.71</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="5">
+        <v>377</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1676.22</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C94" s="5">
+        <v>476</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1674.23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" s="5">
+        <v>427</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1673.73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C96" s="5">
+        <v>425</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1671.75</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C97" s="5">
+        <v>366</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1671.35</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C98" s="5">
+        <v>437</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1660.63</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C99" s="5">
+        <v>459</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1660.43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C100" s="5">
+        <v>414</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1655.86</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" s="5">
+        <v>373</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1654.25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C102" s="5">
+        <v>425</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1652.73</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C103" s="5">
+        <v>454</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1652.45</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C104" s="5">
+        <v>451</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1645.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C105" s="5">
+        <v>412</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1643.89</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C106" s="5">
+        <v>378</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1638.22</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C107" s="5">
+        <v>418</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1630.84</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C108" s="5">
+        <v>457</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1626.43</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C109" s="5">
+        <v>411</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1625.91</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C110" s="5">
+        <v>344</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1614.56</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C111" s="5">
+        <v>403</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1612.98</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C112" s="5">
+        <v>428</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1612.74</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C113" s="5">
+        <v>334</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1611.65</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C114" s="5">
+        <v>389</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1609.1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C115" s="5">
+        <v>338</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1608.61</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C116" s="5">
+        <v>397</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1608.03</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C117" s="5">
+        <v>366</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1606.35</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C118" s="5">
+        <v>378</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1603.23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C119" s="5">
+        <v>415</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1602.84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C120" s="5">
+        <v>342</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1595.59</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C121" s="5">
+        <v>411</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1592.87</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C122" s="5">
+        <v>423</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1590.79</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C123" s="5">
+        <v>357</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1590.43</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C124" s="5">
+        <v>320</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1586.79</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C125" s="5">
+        <v>344</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1585.56</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C126" s="5">
+        <v>332</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1582.67</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C127" s="5">
+        <v>365</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1582.34</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C128" s="5">
+        <v>387</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1582.12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C129" s="5">
+        <v>362</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1581.38</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C130" s="5">
+        <v>341</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1576.59</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C131" s="5">
+        <v>377</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1576.2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C132" s="5">
+        <v>344</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1571.54</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C133" s="5">
+        <v>359</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1563.4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C134" s="5">
+        <v>378</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1555.18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C135" s="5">
+        <v>383</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1554.17</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C136" s="5">
+        <v>431</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1545.69</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C137" s="5">
+        <v>352</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1526.48</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C138" s="5">
+        <v>377</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1507.24</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C139" s="5">
+        <v>361</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1499.4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C140" s="5">
+        <v>372</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1497.27</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C141" s="5">
+        <v>309</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1489.92</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C142" s="5">
+        <v>373</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1486.26</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C143" s="5">
+        <v>346</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1485.54</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C144" s="5">
+        <v>403</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1484.95</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C145" s="5">
+        <v>401</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1480.99</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C146" s="5">
+        <v>359</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1456.4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C147" s="5">
+        <v>402</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1452.95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C148" s="5">
+        <v>349</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1441.51</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C149" s="5">
+        <v>283</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1432.17</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C150" s="5">
+        <v>296</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1427.04</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C151" s="5">
+        <v>287</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1416.13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C152" s="5">
+        <v>327</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1413.73</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C153" s="5">
+        <v>320</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1411.79</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C154" s="5">
+        <v>341</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1410.59</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C155" s="5">
+        <v>360</v>
+      </c>
+      <c r="D155" s="5">
+        <v>1406.4</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C156" s="5">
+        <v>328</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1402.72</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C157" s="5">
+        <v>378</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1401.22</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C158" s="5">
+        <v>327</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1393.74</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C159" s="5">
+        <v>343</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1390.55</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C160" s="5">
+        <v>348</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1386.52</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C161" s="5">
+        <v>371</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1382.29</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C162" s="5">
+        <v>307</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1375.94</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C163" s="5">
+        <v>341</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1365.61</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C164" s="5">
+        <v>339</v>
+      </c>
+      <c r="D164" s="5">
+        <v>1351.6</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C165" s="5">
+        <v>332</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1344.68</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C166" s="5">
+        <v>341</v>
+      </c>
+      <c r="D166" s="5">
+        <v>1342.6</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C167" s="5">
+        <v>313</v>
+      </c>
+      <c r="D167" s="5">
+        <v>1337.85</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C168" s="5">
+        <v>274</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1334.26</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C169" s="5">
+        <v>261</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1326.39</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C170" s="5">
+        <v>282</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1322.19</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C171" s="5">
+        <v>380</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1314.2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C172" s="5">
+        <v>277</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1313.24</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C173" s="5">
+        <v>361</v>
+      </c>
+      <c r="D173" s="5">
+        <v>1307.4100000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C174" s="5">
+        <v>341</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1304.58</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C175" s="5">
+        <v>291</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1296.08</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C176" s="5">
+        <v>332</v>
+      </c>
+      <c r="D176" s="5">
+        <v>1295.68</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C177" s="5">
+        <v>358</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1295.42</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C178" s="5">
+        <v>316</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1293.8399999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C179" s="5">
+        <v>264</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1291.3599999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C180" s="5">
+        <v>330</v>
+      </c>
+      <c r="D180" s="5">
+        <v>1288.7</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C181" s="5">
+        <v>252</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1274.48</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C182" s="5">
+        <v>350</v>
+      </c>
+      <c r="D182" s="5">
+        <v>1273.52</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C183" s="5">
+        <v>283</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1270.18</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C184" s="5">
+        <v>329</v>
+      </c>
+      <c r="D184" s="5">
+        <v>1251.7</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C185" s="5">
+        <v>301</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C186" s="5">
+        <v>423</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1243.76</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C187" s="5">
+        <v>333</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1223.68</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C188" s="5">
+        <v>273</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1208.27</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C189" s="5">
+        <v>282</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1202.18</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C190" s="5">
+        <v>302</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1198.97</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C191" s="5">
+        <v>311</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1191.8900000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C192" s="5">
+        <v>269</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1160.31</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C193" s="5">
+        <v>279</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1111.2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C194" s="5">
+        <v>260</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1096.4100000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C195" s="5">
+        <v>230</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1066.67</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C196" s="5">
+        <v>252</v>
+      </c>
+      <c r="D196" s="5">
+        <v>967.49</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C197" s="5">
+        <v>200</v>
+      </c>
+      <c r="D197" s="5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C198" s="5">
+        <v>263</v>
+      </c>
+      <c r="D198" s="5">
+        <v>952.36</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C199" s="5">
+        <v>232</v>
+      </c>
+      <c r="D199" s="5">
+        <v>904.7</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C200" s="5">
+        <v>254</v>
+      </c>
+      <c r="D200" s="5">
+        <v>869.46</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C201" s="5">
+        <v>216</v>
+      </c>
+      <c r="D201" s="5">
+        <v>830.84</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C202" s="5">
+        <v>197</v>
+      </c>
+      <c r="D202" s="5">
+        <v>812.04</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13959,7 +18536,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14039,6 +18616,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F630D0CA-FF1A-4634-BF8F-3CF692325ED7}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="1">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -14055,12 +18704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14226,7 +18875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D6"/>
   <sheetViews>
@@ -14312,7 +18961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -14330,13 +18979,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14942,11 +19591,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -15095,11 +19744,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -15111,12 +19760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -15251,11 +19900,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -15402,896 +20051,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C0328-434A-4F44-A875-A035A502D05E}">
-  <dimension ref="A1:B110"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="5">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="5">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B7" s="5">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B8" s="5">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="5">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="5">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B11" s="5">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="5">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B13" s="5">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="5">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="5">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B16" s="5">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B17" s="5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B18" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="5">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B20" s="5">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="5">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B22" s="5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B23" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="5">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B25" s="5">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" s="5">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B27" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B28" s="5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B29" s="5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B32" s="5">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B33" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B34" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B35" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B36" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B37" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B38" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B39" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B40" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B41" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B42" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B43" s="5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B44" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B45" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B46" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B47" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B48" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B49" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B50" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B51" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B52" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B53" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B54" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B55" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B56" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B57" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B58" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B59" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B60" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B61" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B62" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B63" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B64" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B65" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B66" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B67" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B68" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B69" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B70" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B71" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B72" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B74" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B75" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B76" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B77" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B78" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B79" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B80" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B81" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B82" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B83" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B84" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B85" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B86" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B87" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B88" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B89" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B90" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B91" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B92" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B93" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B94" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B95" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B96" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B97" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B98" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B99" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B100" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B101" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B102" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B103" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B104" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B105" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B106" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B107" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B108" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B109" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B110" s="5">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\FIZZ\Documents\@MOOC\@ Udacity PDSP\Projects\SQL\Sakila Database - Udacity SQL Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE120E87-A31B-4BF2-8344-173BAFD9D222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84F0BCF-A32C-4793-AB90-EF73ECDE1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="829" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" tabRatio="829" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1-1 " sheetId="1" r:id="rId1"/>
@@ -25,19 +25,21 @@
     <sheet name="Question 4" sheetId="9" r:id="rId10"/>
     <sheet name="Map" sheetId="11" r:id="rId11"/>
     <sheet name="Total sales bar" sheetId="12" r:id="rId12"/>
+    <sheet name="Suggestion5" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="1" r:id="rId14"/>
-    <pivotCache cacheId="2" r:id="rId15"/>
-    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="8" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="710">
   <si>
     <t>film_title</t>
   </si>
@@ -2171,6 +2173,12 @@
   </si>
   <si>
     <t xml:space="preserve">to calculate the total sales made </t>
+  </si>
+  <si>
+    <t>Sum of Field2</t>
+  </si>
+  <si>
+    <t>Sum of Field3</t>
   </si>
 </sst>
 </file>
@@ -7783,6 +7791,230 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abdulhaffiz Umar" refreshedDate="44567.920640856479" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="199" xr:uid="{E6F6FA03-3222-417B-8851-F1E54C019406}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C6:E205" sheet="Transformed Data"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Field1" numFmtId="0">
+      <sharedItems count="199">
+        <s v="Susan Davis"/>
+        <s v="Gina Degeneres"/>
+        <s v="Matthew Carrey"/>
+        <s v="Mary Keitel"/>
+        <s v="Scarlett Damon"/>
+        <s v="Walter Torn"/>
+        <s v="Henry Berry"/>
+        <s v="Christian Akroyd"/>
+        <s v="Angela Witherspoon"/>
+        <s v="Cameron Zellweger"/>
+        <s v="Woody Hoffman"/>
+        <s v="Sandra Kilmer"/>
+        <s v="Ben Willis"/>
+        <s v="Jayne Nolte"/>
+        <s v="Michael Bolger"/>
+        <s v="Sean Guiness"/>
+        <s v="Kevin Garland"/>
+        <s v="Whoopi Hurt"/>
+        <s v="Ed Mansfield"/>
+        <s v="Helen Voight"/>
+        <s v="Julia Mcqueen"/>
+        <s v="Angela Hudson"/>
+        <s v="Renee Tracy"/>
+        <s v="Kirsten Paltrow"/>
+        <s v="Ewan Gooding"/>
+        <s v="Uma Wood"/>
+        <s v="Reese Kilmer"/>
+        <s v="Reese West"/>
+        <s v="Jada Ryder"/>
+        <s v="Rip Crawford"/>
+        <s v="Val Bolger"/>
+        <s v="Warren Nolte"/>
+        <s v="Kirsten Akroyd"/>
+        <s v="Vivien Bergen"/>
+        <s v="Mary Tandy"/>
+        <s v="Kenneth Torn"/>
+        <s v="Tom Miranda"/>
+        <s v="Gregory Gooding"/>
+        <s v="Vivien Basinger"/>
+        <s v="Albert Johansson"/>
+        <s v="Albert Nolte"/>
+        <s v="Jodie Degeneres"/>
+        <s v="Geoffrey Heston"/>
+        <s v="Fay Winslet"/>
+        <s v="John Suvari"/>
+        <s v="Sidney Crowe"/>
+        <s v="Milla Keitel"/>
+        <s v="Groucho Dunst"/>
+        <s v="Woody Jolie"/>
+        <s v="Warren Jackman"/>
+        <s v="Grace Mostel"/>
+        <s v="Mena Temple"/>
+        <s v="Will Wilson"/>
+        <s v="Natalie Hopkins"/>
+        <s v="Renee Ball"/>
+        <s v="Humphrey Garland"/>
+        <s v="Dustin Tautou"/>
+        <s v="Russell Bacall"/>
+        <s v="Greta Keitel"/>
+        <s v="James Pitt"/>
+        <s v="Goldie Brody"/>
+        <s v="Johnny Lollobrigida"/>
+        <s v="Gene Mckellen"/>
+        <s v="Ed Guiness"/>
+        <s v="Ray Johansson"/>
+        <s v="Alec Wayne"/>
+        <s v="Frances Day-Lewis"/>
+        <s v="Matthew Leigh"/>
+        <s v="Kim Allen"/>
+        <s v="Rock Dukakis"/>
+        <s v="Daryl Wahlberg"/>
+        <s v="Jude Cruise"/>
+        <s v="Dan Harris"/>
+        <s v="Bela Walken"/>
+        <s v="Angelina Astaire"/>
+        <s v="Jayne Neeson"/>
+        <s v="Greta Malden"/>
+        <s v="Milla Peck"/>
+        <s v="River Dean"/>
+        <s v="Ian Tandy"/>
+        <s v="Morgan Hopkins"/>
+        <s v="Groucho Sinatra"/>
+        <s v="Audrey Olivier"/>
+        <s v="Nick Degeneres"/>
+        <s v="William Hackman"/>
+        <s v="Morgan Williams"/>
+        <s v="Ralph Cruz"/>
+        <s v="Kenneth Hoffman"/>
+        <s v="Russell Temple"/>
+        <s v="Julia Barrymore"/>
+        <s v="Lucille Tracy"/>
+        <s v="Olympia Pfeiffer"/>
+        <s v="Alan Dreyfuss"/>
+        <s v="Rip Winslet"/>
+        <s v="Johnny Cage"/>
+        <s v="Karl Berry"/>
+        <s v="Penelope Cronyn"/>
+        <s v="Anne Cronyn"/>
+        <s v="Cuba Olivier"/>
+        <s v="Julianne Dench"/>
+        <s v="Daryl Crawford"/>
+        <s v="Burt Dukakis"/>
+        <s v="Sean Williams"/>
+        <s v="Penelope Pinkett"/>
+        <s v="Harvey Hope"/>
+        <s v="Meryl Gibson"/>
+        <s v="Michelle Mcconaughey"/>
+        <s v="Gary Phoenix"/>
+        <s v="Richard Penn"/>
+        <s v="Chris Bridges"/>
+        <s v="Jon Chase"/>
+        <s v="Lucille Dee"/>
+        <s v="Penelope Monroe"/>
+        <s v="Harrison Bale"/>
+        <s v="Greg Chaplin"/>
+        <s v="Cate Mcqueen"/>
+        <s v="Liza Bergman"/>
+        <s v="Jayne Silverstone"/>
+        <s v="Nick Stallone"/>
+        <s v="Ellen Presley"/>
+        <s v="Gene Hopkins"/>
+        <s v="Christopher West"/>
+        <s v="Scarlett Bening"/>
+        <s v="Jessica Bailey"/>
+        <s v="Gary Penn"/>
+        <s v="Fred Costner"/>
+        <s v="Gene Willis"/>
+        <s v="Burt Posey"/>
+        <s v="Meryl Allen"/>
+        <s v="Groucho Williams"/>
+        <s v="Salma Nolte"/>
+        <s v="Meg Hawke"/>
+        <s v="Kirk Jovovich"/>
+        <s v="Cuba Allen"/>
+        <s v="Minnie Zellweger"/>
+        <s v="Morgan Mcdormand"/>
+        <s v="Elvis Marx"/>
+        <s v="Fay Kilmer"/>
+        <s v="Carmen Hunt"/>
+        <s v="Frances Tomei"/>
+        <s v="Burt Temple"/>
+        <s v="Laurence Bullock"/>
+        <s v="Humphrey Willis"/>
+        <s v="Charlize Dench"/>
+        <s v="Nick Wahlberg"/>
+        <s v="Ben Harris"/>
+        <s v="Spencer Peck"/>
+        <s v="Matthew Johansson"/>
+        <s v="Spencer Depp"/>
+        <s v="Parker Goldberg"/>
+        <s v="Christian Neeson"/>
+        <s v="Zero Cage"/>
+        <s v="Kevin Bloom"/>
+        <s v="Al Garland"/>
+        <s v="Christian Gable"/>
+        <s v="Debbie Akroyd"/>
+        <s v="Sylvester Dern"/>
+        <s v="Jane Jackman"/>
+        <s v="Bob Fawcett"/>
+        <s v="Adam Hopper"/>
+        <s v="Tom Mckellen"/>
+        <s v="Oprah Kilmer"/>
+        <s v="Laura Brody"/>
+        <s v="Thora Temple"/>
+        <s v="Rita Reynolds"/>
+        <s v="Chris Depp"/>
+        <s v="Dan Torn"/>
+        <s v="Mae Hoffman"/>
+        <s v="Dan Streep"/>
+        <s v="Jim Mostel"/>
+        <s v="Fay Wood"/>
+        <s v="Tim Hackman"/>
+        <s v="Mena Hopper"/>
+        <s v="Michael Bening"/>
+        <s v="Kenneth Paltrow"/>
+        <s v="Minnie Kilmer"/>
+        <s v="Lisa Monroe"/>
+        <s v="Bette Nicholson"/>
+        <s v="Joe Swank"/>
+        <s v="Cameron Streep"/>
+        <s v="Cuba Birch"/>
+        <s v="Audrey Bailey"/>
+        <s v="Cate Harris"/>
+        <s v="Christopher Berry"/>
+        <s v="Cameron Wray"/>
+        <s v="Ed Chase"/>
+        <s v="Jeff Silverstone"/>
+        <s v="Cary Mcconaughey"/>
+        <s v="Kenneth Pesci"/>
+        <s v="Penelope Guiness"/>
+        <s v="Russell Close"/>
+        <s v="Julia Fawcett"/>
+        <s v="Jennifer Davis"/>
+        <s v="Julia Zellweger"/>
+        <s v="Sandra Peck"/>
+        <s v="Judy Dean"/>
+        <s v="Adam Grant"/>
+        <s v="Sissy Sobieski"/>
+        <s v="Emily Dee"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Field2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="197" maxValue="750"/>
+    </cacheField>
+    <cacheField name="Field3" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="812.04" maxValue="3193.49"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="350">
   <r>
@@ -9897,6 +10129,1006 @@
     <x v="9"/>
     <n v="507"/>
     <n v="2322.94"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="199">
+  <r>
+    <x v="0"/>
+    <n v="750"/>
+    <n v="3193.49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="685"/>
+    <n v="3129.17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="619"/>
+    <n v="2543.7800000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="607"/>
+    <n v="2426.92"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="519"/>
+    <n v="2403.81"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="584"/>
+    <n v="2403.1799999999998"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="564"/>
+    <n v="2392.36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="504"/>
+    <n v="2378.9699999999998"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="589"/>
+    <n v="2357.11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="507"/>
+    <n v="2322.94"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="508"/>
+    <n v="2315.92"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="556"/>
+    <n v="2271.44"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="503"/>
+    <n v="2239.9699999999998"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="564"/>
+    <n v="2231.33"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="504"/>
+    <n v="2201.9699999999998"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="538"/>
+    <n v="2173.61"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="511"/>
+    <n v="2161.9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="483"/>
+    <n v="2156.16"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="443"/>
+    <n v="2146.56"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="510"/>
+    <n v="2144.92"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="498"/>
+    <n v="2129.02"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="516"/>
+    <n v="2124.84"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="499"/>
+    <n v="2113.0300000000002"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="406"/>
+    <n v="2111.9499999999998"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="523"/>
+    <n v="2111.79"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="486"/>
+    <n v="2087.15"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="503"/>
+    <n v="2075.9699999999998"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="500"/>
+    <n v="2074"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="502"/>
+    <n v="2073.0100000000002"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="467"/>
+    <n v="2068.34"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="562"/>
+    <n v="2066.38"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="511"/>
+    <n v="2064.9"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="429"/>
+    <n v="2056.71"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="479"/>
+    <n v="2051.21"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="497"/>
+    <n v="2046"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="489"/>
+    <n v="2043.11"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="450"/>
+    <n v="2041.51"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="475"/>
+    <n v="2029.25"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="489"/>
+    <n v="2025.13"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="475"/>
+    <n v="2022.24"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="478"/>
+    <n v="2021.21"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="453"/>
+    <n v="2009.45"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="420"/>
+    <n v="1995.8"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="485"/>
+    <n v="1987.16"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="420"/>
+    <n v="1965.79"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="504"/>
+    <n v="1964.95"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="392"/>
+    <n v="1963.08"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="450"/>
+    <n v="1918.5"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="428"/>
+    <n v="1910.72"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="468"/>
+    <n v="1900.32"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="443"/>
+    <n v="1892.57"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="483"/>
+    <n v="1883.17"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="437"/>
+    <n v="1879.62"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="481"/>
+    <n v="1878.19"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="454"/>
+    <n v="1875.47"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="378"/>
+    <n v="1866.22"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="427"/>
+    <n v="1855.72"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="403"/>
+    <n v="1854.98"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="447"/>
+    <n v="1845.53"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="469"/>
+    <n v="1844.31"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="415"/>
+    <n v="1842.84"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="446"/>
+    <n v="1813.54"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="405"/>
+    <n v="1810.94"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="475"/>
+    <n v="1810.26"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="418"/>
+    <n v="1808.82"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="459"/>
+    <n v="1802.44"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="428"/>
+    <n v="1794.72"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="470"/>
+    <n v="1791.29"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="449"/>
+    <n v="1787.52"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="431"/>
+    <n v="1783.69"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="429"/>
+    <n v="1772.71"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="455"/>
+    <n v="1771.45"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="420"/>
+    <n v="1770.8"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="414"/>
+    <n v="1766.86"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="447"/>
+    <n v="1755.53"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="452"/>
+    <n v="1749.48"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="439"/>
+    <n v="1748.61"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="388"/>
+    <n v="1746.1"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="429"/>
+    <n v="1740.72"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="461"/>
+    <n v="1723.38"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="455"/>
+    <n v="1705.44"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="418"/>
+    <n v="1703.79"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="362"/>
+    <n v="1700.38"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="333"/>
+    <n v="1693.65"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="370"/>
+    <n v="1692.31"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="406"/>
+    <n v="1689.94"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="418"/>
+    <n v="1686.82"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="417"/>
+    <n v="1678.81"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="430"/>
+    <n v="1676.71"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="377"/>
+    <n v="1676.22"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="476"/>
+    <n v="1674.23"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="427"/>
+    <n v="1673.73"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="425"/>
+    <n v="1671.75"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="366"/>
+    <n v="1671.35"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <n v="437"/>
+    <n v="1660.63"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <n v="459"/>
+    <n v="1660.43"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <n v="414"/>
+    <n v="1655.86"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <n v="373"/>
+    <n v="1654.25"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <n v="425"/>
+    <n v="1652.73"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <n v="454"/>
+    <n v="1652.45"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <n v="451"/>
+    <n v="1645.5"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <n v="412"/>
+    <n v="1643.89"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <n v="378"/>
+    <n v="1638.22"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <n v="418"/>
+    <n v="1630.84"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <n v="457"/>
+    <n v="1626.43"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <n v="411"/>
+    <n v="1625.91"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <n v="344"/>
+    <n v="1614.56"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <n v="403"/>
+    <n v="1612.98"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <n v="428"/>
+    <n v="1612.74"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <n v="334"/>
+    <n v="1611.65"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="389"/>
+    <n v="1609.1"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <n v="338"/>
+    <n v="1608.61"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="397"/>
+    <n v="1608.03"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <n v="366"/>
+    <n v="1606.35"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <n v="378"/>
+    <n v="1603.23"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <n v="415"/>
+    <n v="1602.84"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <n v="342"/>
+    <n v="1595.59"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <n v="411"/>
+    <n v="1592.87"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <n v="423"/>
+    <n v="1590.79"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <n v="357"/>
+    <n v="1590.43"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <n v="320"/>
+    <n v="1586.79"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <n v="344"/>
+    <n v="1585.56"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <n v="332"/>
+    <n v="1582.67"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <n v="365"/>
+    <n v="1582.34"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <n v="387"/>
+    <n v="1582.12"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <n v="362"/>
+    <n v="1581.38"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <n v="341"/>
+    <n v="1576.59"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <n v="377"/>
+    <n v="1576.2"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <n v="344"/>
+    <n v="1571.54"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <n v="359"/>
+    <n v="1563.4"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="378"/>
+    <n v="1555.18"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="383"/>
+    <n v="1554.17"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <n v="431"/>
+    <n v="1545.69"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <n v="352"/>
+    <n v="1526.48"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <n v="377"/>
+    <n v="1507.24"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <n v="361"/>
+    <n v="1499.4"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <n v="372"/>
+    <n v="1497.27"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <n v="309"/>
+    <n v="1489.92"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <n v="373"/>
+    <n v="1486.26"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <n v="346"/>
+    <n v="1485.54"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <n v="403"/>
+    <n v="1484.95"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <n v="401"/>
+    <n v="1480.99"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <n v="359"/>
+    <n v="1456.4"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <n v="402"/>
+    <n v="1452.95"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <n v="349"/>
+    <n v="1441.51"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <n v="283"/>
+    <n v="1432.17"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="296"/>
+    <n v="1427.04"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <n v="287"/>
+    <n v="1416.13"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <n v="327"/>
+    <n v="1413.73"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <n v="320"/>
+    <n v="1411.79"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <n v="341"/>
+    <n v="1410.59"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <n v="360"/>
+    <n v="1406.4"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <n v="328"/>
+    <n v="1402.72"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <n v="378"/>
+    <n v="1401.22"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <n v="327"/>
+    <n v="1393.74"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <n v="343"/>
+    <n v="1390.55"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <n v="348"/>
+    <n v="1386.52"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <n v="371"/>
+    <n v="1382.29"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <n v="307"/>
+    <n v="1375.94"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <n v="341"/>
+    <n v="1365.61"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <n v="339"/>
+    <n v="1351.6"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <n v="332"/>
+    <n v="1344.68"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <n v="341"/>
+    <n v="1342.6"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <n v="313"/>
+    <n v="1337.85"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <n v="274"/>
+    <n v="1334.26"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <n v="261"/>
+    <n v="1326.39"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <n v="282"/>
+    <n v="1322.19"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <n v="380"/>
+    <n v="1314.2"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <n v="277"/>
+    <n v="1313.24"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <n v="361"/>
+    <n v="1307.4100000000001"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <n v="341"/>
+    <n v="1304.58"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <n v="291"/>
+    <n v="1296.08"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <n v="332"/>
+    <n v="1295.68"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <n v="358"/>
+    <n v="1295.42"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <n v="316"/>
+    <n v="1293.8399999999999"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <n v="264"/>
+    <n v="1291.3599999999999"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <n v="330"/>
+    <n v="1288.7"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <n v="252"/>
+    <n v="1274.48"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <n v="350"/>
+    <n v="1273.52"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <n v="283"/>
+    <n v="1270.18"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <n v="329"/>
+    <n v="1251.7"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <n v="301"/>
+    <n v="1248"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <n v="423"/>
+    <n v="1243.76"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <n v="333"/>
+    <n v="1223.68"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <n v="273"/>
+    <n v="1208.27"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <n v="282"/>
+    <n v="1202.18"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <n v="302"/>
+    <n v="1198.97"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="311"/>
+    <n v="1191.8900000000001"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <n v="269"/>
+    <n v="1160.31"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <n v="279"/>
+    <n v="1111.2"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <n v="260"/>
+    <n v="1096.4100000000001"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <n v="230"/>
+    <n v="1066.67"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <n v="252"/>
+    <n v="967.49"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <n v="200"/>
+    <n v="963"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <n v="263"/>
+    <n v="952.36"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <n v="232"/>
+    <n v="904.7"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <n v="254"/>
+    <n v="869.46"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <n v="216"/>
+    <n v="830.84"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <n v="197"/>
+    <n v="812.04"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -10343,6 +11575,858 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F57517DA-2C35-4DB3-B7D4-FFC6DCA08D80}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:C202" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="200">
+        <item x="196"/>
+        <item x="159"/>
+        <item x="153"/>
+        <item x="92"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="65"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="74"/>
+        <item x="97"/>
+        <item x="181"/>
+        <item x="82"/>
+        <item x="73"/>
+        <item x="145"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="158"/>
+        <item x="101"/>
+        <item x="127"/>
+        <item x="140"/>
+        <item x="179"/>
+        <item x="184"/>
+        <item x="9"/>
+        <item x="138"/>
+        <item x="187"/>
+        <item x="182"/>
+        <item x="115"/>
+        <item x="143"/>
+        <item x="109"/>
+        <item x="165"/>
+        <item x="7"/>
+        <item x="154"/>
+        <item x="150"/>
+        <item x="183"/>
+        <item x="121"/>
+        <item x="133"/>
+        <item x="180"/>
+        <item x="98"/>
+        <item x="72"/>
+        <item x="168"/>
+        <item x="166"/>
+        <item x="100"/>
+        <item x="70"/>
+        <item x="155"/>
+        <item x="56"/>
+        <item x="185"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="119"/>
+        <item x="136"/>
+        <item x="198"/>
+        <item x="24"/>
+        <item x="137"/>
+        <item x="43"/>
+        <item x="170"/>
+        <item x="66"/>
+        <item x="139"/>
+        <item x="125"/>
+        <item x="124"/>
+        <item x="107"/>
+        <item x="120"/>
+        <item x="62"/>
+        <item x="126"/>
+        <item x="42"/>
+        <item x="1"/>
+        <item x="60"/>
+        <item x="50"/>
+        <item x="114"/>
+        <item x="37"/>
+        <item x="58"/>
+        <item x="76"/>
+        <item x="47"/>
+        <item x="81"/>
+        <item x="129"/>
+        <item x="113"/>
+        <item x="104"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="55"/>
+        <item x="142"/>
+        <item x="79"/>
+        <item x="28"/>
+        <item x="59"/>
+        <item x="157"/>
+        <item x="75"/>
+        <item x="13"/>
+        <item x="117"/>
+        <item x="186"/>
+        <item x="192"/>
+        <item x="123"/>
+        <item x="169"/>
+        <item x="41"/>
+        <item x="178"/>
+        <item x="44"/>
+        <item x="94"/>
+        <item x="61"/>
+        <item x="110"/>
+        <item x="71"/>
+        <item x="195"/>
+        <item x="89"/>
+        <item x="191"/>
+        <item x="20"/>
+        <item x="193"/>
+        <item x="99"/>
+        <item x="95"/>
+        <item x="87"/>
+        <item x="174"/>
+        <item x="188"/>
+        <item x="35"/>
+        <item x="152"/>
+        <item x="16"/>
+        <item x="68"/>
+        <item x="132"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="162"/>
+        <item x="141"/>
+        <item x="176"/>
+        <item x="116"/>
+        <item x="111"/>
+        <item x="90"/>
+        <item x="167"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="2"/>
+        <item x="147"/>
+        <item x="67"/>
+        <item x="131"/>
+        <item x="172"/>
+        <item x="51"/>
+        <item x="128"/>
+        <item x="105"/>
+        <item x="173"/>
+        <item x="14"/>
+        <item x="106"/>
+        <item x="46"/>
+        <item x="77"/>
+        <item x="175"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="135"/>
+        <item x="85"/>
+        <item x="53"/>
+        <item x="83"/>
+        <item x="118"/>
+        <item x="144"/>
+        <item x="91"/>
+        <item x="161"/>
+        <item x="149"/>
+        <item x="96"/>
+        <item x="189"/>
+        <item x="112"/>
+        <item x="103"/>
+        <item x="86"/>
+        <item x="64"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="54"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="29"/>
+        <item x="93"/>
+        <item x="164"/>
+        <item x="78"/>
+        <item x="69"/>
+        <item x="57"/>
+        <item x="190"/>
+        <item x="88"/>
+        <item x="130"/>
+        <item x="11"/>
+        <item x="194"/>
+        <item x="122"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="102"/>
+        <item x="45"/>
+        <item x="197"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="0"/>
+        <item x="156"/>
+        <item x="163"/>
+        <item x="171"/>
+        <item x="160"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="49"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="52"/>
+        <item x="84"/>
+        <item x="10"/>
+        <item x="48"/>
+        <item x="151"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="200">
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Field2" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Field3" fld="2" baseField="0" baseItem="180"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16311,7 +18395,7 @@
   <dimension ref="B1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18524,6 +20608,2236 @@
       </c>
       <c r="D202" s="5">
         <v>812.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C482B2B-A249-41D3-98DB-976F9B43DDEB}">
+  <dimension ref="A2:C202"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1">
+        <v>750</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3193.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="1">
+        <v>685</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3129.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="1">
+        <v>619</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2543.7800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="1">
+        <v>607</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2426.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="1">
+        <v>589</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2357.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="1">
+        <v>584</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2403.1799999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="1">
+        <v>564</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2392.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="1">
+        <v>564</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2231.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="1">
+        <v>562</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2066.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="1">
+        <v>556</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2271.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13" s="1">
+        <v>538</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2173.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="1">
+        <v>523</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2111.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="1">
+        <v>519</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2403.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="1">
+        <v>516</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2124.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="1">
+        <v>511</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2064.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="1">
+        <v>511</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2161.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" s="1">
+        <v>510</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2144.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="1">
+        <v>508</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2315.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" s="1">
+        <v>507</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2322.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B22" s="1">
+        <v>504</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1964.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="1">
+        <v>504</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2378.9699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="1">
+        <v>504</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2201.9699999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="1">
+        <v>503</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2239.9699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B26" s="1">
+        <v>503</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2075.9699999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="1">
+        <v>502</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2073.0100000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="1">
+        <v>500</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B29" s="1">
+        <v>499</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2113.0300000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="1">
+        <v>498</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2129.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="1">
+        <v>497</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32" s="1">
+        <v>489</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2025.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B33" s="1">
+        <v>489</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2043.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B34" s="1">
+        <v>486</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2087.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" s="1">
+        <v>485</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1987.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B36" s="1">
+        <v>483</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1883.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="1">
+        <v>483</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2156.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B38" s="1">
+        <v>481</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1878.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B39" s="1">
+        <v>479</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2051.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B40" s="1">
+        <v>478</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2021.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B41" s="1">
+        <v>476</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1674.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B42" s="1">
+        <v>475</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2022.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B43" s="1">
+        <v>475</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2029.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" s="1">
+        <v>475</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1810.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B45" s="1">
+        <v>470</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1791.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B46" s="1">
+        <v>469</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1844.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" s="1">
+        <v>468</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1900.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B48" s="1">
+        <v>467</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2068.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B49" s="1">
+        <v>461</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1723.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B50" s="1">
+        <v>459</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1802.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B51" s="1">
+        <v>459</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1660.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52" s="1">
+        <v>457</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1626.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B53" s="1">
+        <v>455</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1705.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B54" s="1">
+        <v>455</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1771.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B55" s="1">
+        <v>454</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1875.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B56" s="1">
+        <v>454</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1652.45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B57" s="1">
+        <v>453</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2009.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="1">
+        <v>452</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1749.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B59" s="1">
+        <v>451</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1645.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B60" s="1">
+        <v>450</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2041.51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B61" s="1">
+        <v>450</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1918.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B62" s="1">
+        <v>449</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1787.52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B63" s="1">
+        <v>447</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1755.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B64" s="1">
+        <v>447</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1845.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B65" s="1">
+        <v>446</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1813.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B66" s="1">
+        <v>443</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1892.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="1">
+        <v>443</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2146.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B68" s="1">
+        <v>439</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1748.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B69" s="1">
+        <v>437</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1660.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B70" s="1">
+        <v>437</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1879.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B71" s="1">
+        <v>431</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1783.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B72" s="1">
+        <v>431</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1545.69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B73" s="1">
+        <v>430</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1676.71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B74" s="1">
+        <v>429</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1772.71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" s="1">
+        <v>429</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2056.71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B76" s="1">
+        <v>429</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1740.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B77" s="1">
+        <v>428</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1794.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B78" s="1">
+        <v>428</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1612.74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B79" s="1">
+        <v>428</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1910.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B80" s="1">
+        <v>427</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1855.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B81" s="1">
+        <v>427</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1673.73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B82" s="1">
+        <v>425</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1671.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B83" s="1">
+        <v>425</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1652.73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B84" s="1">
+        <v>423</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1243.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B85" s="1">
+        <v>423</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1590.79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B86" s="1">
+        <v>420</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1995.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B87" s="1">
+        <v>420</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1770.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B88" s="1">
+        <v>420</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1965.79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B89" s="1">
+        <v>418</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1630.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B90" s="1">
+        <v>418</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1808.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B91" s="1">
+        <v>418</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1703.79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="1">
+        <v>418</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1686.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B93" s="1">
+        <v>417</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1678.81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B94" s="1">
+        <v>415</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1602.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B95" s="1">
+        <v>415</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1842.84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B96" s="1">
+        <v>414</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1766.86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B97" s="1">
+        <v>414</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1655.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B98" s="1">
+        <v>412</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1643.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B99" s="1">
+        <v>411</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1592.87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" s="1">
+        <v>411</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1625.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B101" s="1">
+        <v>406</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1689.94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B102" s="1">
+        <v>406</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2111.9499999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B103" s="1">
+        <v>405</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1810.94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" s="1">
+        <v>403</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1612.98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B105" s="1">
+        <v>403</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1484.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" s="1">
+        <v>403</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1854.98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B107" s="1">
+        <v>402</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1452.95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B108" s="1">
+        <v>401</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1480.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B109" s="1">
+        <v>397</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1608.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B110" s="1">
+        <v>392</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1963.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B111" s="1">
+        <v>389</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1609.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B112" s="1">
+        <v>388</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1746.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B113" s="1">
+        <v>387</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1582.12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B114" s="1">
+        <v>383</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1554.17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B115" s="1">
+        <v>380</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1314.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B116" s="1">
+        <v>378</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1638.22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B117" s="1">
+        <v>378</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1555.18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B118" s="1">
+        <v>378</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1401.22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B119" s="1">
+        <v>378</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1603.23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B120" s="1">
+        <v>378</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1866.22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B121" s="1">
+        <v>377</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1676.22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B122" s="1">
+        <v>377</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1576.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B123" s="1">
+        <v>377</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1507.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B124" s="1">
+        <v>373</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1486.26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B125" s="1">
+        <v>373</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1654.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B126" s="1">
+        <v>372</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1497.27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B127" s="1">
+        <v>371</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1382.29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B128" s="1">
+        <v>370</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1692.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B129" s="1">
+        <v>366</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1671.35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B130" s="1">
+        <v>366</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1606.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B131" s="1">
+        <v>365</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1582.34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B132" s="1">
+        <v>362</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1700.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B133" s="1">
+        <v>362</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1581.38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B134" s="1">
+        <v>361</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1499.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B135" s="1">
+        <v>361</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1307.4100000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B136" s="1">
+        <v>360</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1406.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B137" s="1">
+        <v>359</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1563.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B138" s="1">
+        <v>359</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1456.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B139" s="1">
+        <v>358</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1295.42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B140" s="1">
+        <v>357</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1590.43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B141" s="1">
+        <v>352</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1526.48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B142" s="1">
+        <v>350</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1273.52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B143" s="1">
+        <v>349</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1441.51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B144" s="1">
+        <v>348</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1386.52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B145" s="1">
+        <v>346</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1485.54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B146" s="1">
+        <v>344</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1614.56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B147" s="1">
+        <v>344</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1571.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B148" s="1">
+        <v>344</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1585.56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B149" s="1">
+        <v>343</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1390.55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B150" s="1">
+        <v>342</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1595.59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B151" s="1">
+        <v>341</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1342.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B152" s="1">
+        <v>341</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1304.58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B153" s="1">
+        <v>341</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1365.61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B154" s="1">
+        <v>341</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1576.59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B155" s="1">
+        <v>341</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1410.59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B156" s="1">
+        <v>339</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1351.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B157" s="1">
+        <v>338</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1608.61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B158" s="1">
+        <v>334</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1611.65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B159" s="1">
+        <v>333</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1223.68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B160" s="1">
+        <v>333</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1693.65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B161" s="1">
+        <v>332</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1344.68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B162" s="1">
+        <v>332</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1295.68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B163" s="1">
+        <v>332</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1582.67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B164" s="1">
+        <v>330</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1288.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B165" s="1">
+        <v>329</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1251.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B166" s="1">
+        <v>328</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1402.72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B167" s="1">
+        <v>327</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1393.74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B168" s="1">
+        <v>327</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1413.73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" s="1">
+        <v>320</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1586.79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B170" s="1">
+        <v>320</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1411.79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B171" s="1">
+        <v>316</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1293.8399999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B172" s="1">
+        <v>313</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1337.85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B173" s="1">
+        <v>311</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1191.8900000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B174" s="1">
+        <v>309</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1489.92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B175" s="1">
+        <v>307</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1375.94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B176" s="1">
+        <v>302</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1198.97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B177" s="1">
+        <v>301</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B178" s="1">
+        <v>296</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1427.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B179" s="1">
+        <v>291</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1296.08</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B180" s="1">
+        <v>287</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1416.13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B181" s="1">
+        <v>283</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1432.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B182" s="1">
+        <v>283</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1270.18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B183" s="1">
+        <v>282</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1202.18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B184" s="1">
+        <v>282</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1322.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B185" s="1">
+        <v>279</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1111.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B186" s="1">
+        <v>277</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1313.24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B187" s="1">
+        <v>274</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1334.26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B188" s="1">
+        <v>273</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1208.27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B189" s="1">
+        <v>269</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1160.31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B190" s="1">
+        <v>264</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1291.3599999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B191" s="1">
+        <v>263</v>
+      </c>
+      <c r="C191" s="1">
+        <v>952.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B192" s="1">
+        <v>261</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1326.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B193" s="1">
+        <v>260</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1096.4100000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B194" s="1">
+        <v>254</v>
+      </c>
+      <c r="C194" s="1">
+        <v>869.46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B195" s="1">
+        <v>252</v>
+      </c>
+      <c r="C195" s="1">
+        <v>967.49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B196" s="1">
+        <v>252</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1274.48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B197" s="1">
+        <v>232</v>
+      </c>
+      <c r="C197" s="1">
+        <v>904.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B198" s="1">
+        <v>230</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1066.67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B199" s="1">
+        <v>216</v>
+      </c>
+      <c r="C199" s="1">
+        <v>830.84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B200" s="1">
+        <v>200</v>
+      </c>
+      <c r="C200" s="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B201" s="1">
+        <v>197</v>
+      </c>
+      <c r="C201" s="1">
+        <v>812.04</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B202" s="1">
+        <v>80115</v>
+      </c>
+      <c r="C202" s="1">
+        <v>334667.71999999991</v>
       </c>
     </row>
   </sheetData>
@@ -19595,7 +23909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
